--- a/biology/Médecine/Charles_Deval/Charles_Deval.xlsx
+++ b/biology/Médecine/Charles_Deval/Charles_Deval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Nicolas Joseph Alexandre Deval est un Jeune de langues et un médecin ophtalmologue français, né le 6 décembre 1806 à Péra (Constantinople) et mort le 6 avril 1862 à Paris 1er arrondissement
 </t>
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du drogman de France Constantin Deval et d'Elisabeth Pisani, les Pisani sont une famille de drogman originaires de Venise.
 Il obtient son titre de docteur à la Faculté de médecine de Paris en 1833, à l'âge de 27 ans, avec une thèse intitulée: Propositions sur divers points de médecine et quelques considération sur le typhus d'Orient.
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Propositions sur divers points de médecine, suivies de quelques considérations sur le typhus d'Orient, [Thèse de doctorat], 1833.
 Il fait paraître plusieurs traités et observations d'ophtalmologie :
